--- a/csv/model/CIMS_exogenous prices/formula_CIMS_exogenous prices_MB.xlsx
+++ b/csv/model/CIMS_exogenous prices/formula_CIMS_exogenous prices_MB.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\model\CIMS_exogenous prices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF3C88E9-A31A-491A-BF67-7CD6AF8DECB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D5B0E0E-EAC1-4BFA-9FFA-758EC38C1F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9744915A-BF6E-4794-8EB1-7514767A5071}"/>
+    <workbookView xWindow="33225" yWindow="1755" windowWidth="17250" windowHeight="8865" xr2:uid="{B370B04F-5179-402E-A4FD-7E08C9A168BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,13 +83,13 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>CIMS.CAN.MB.Natural Gas Extraction</t>
+    <t>CIMS.CAN.MB.Natural Gas Production</t>
   </si>
   <si>
     <t>MB</t>
   </si>
   <si>
-    <t>Natural Gas Extraction</t>
+    <t>Natural Gas Production</t>
   </si>
   <si>
     <t>Price multiplier</t>
@@ -294,6 +294,9 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Control"/>
       <sheetName val="Macro"/>
@@ -309,10 +312,10 @@
       <definedName name="CER_prices_index" refersTo="='Prices'!$CJ$26:$CJ$210"/>
       <definedName name="CER_prod_cost" refersTo="='Prices'!$K$11:$U$23"/>
       <definedName name="CER_year" refersTo="='Prices'!$K$2:$U$2"/>
-      <definedName name="FuelMult_JCIMS" refersTo="='Prices'!$K$214:$U$765"/>
-      <definedName name="FuelMult_JCIMS_Index" refersTo="='Prices'!$CJ$214:$CJ$765"/>
-      <definedName name="sector_CER" refersTo="='Control'!$C$38:$C$58"/>
-      <definedName name="sector_CIMS" refersTo="='Control'!$B$38:$B$58"/>
+      <definedName name="FuelMult_JCIMS" refersTo="='Prices'!$K$214:$U$789"/>
+      <definedName name="FuelMult_JCIMS_Index" refersTo="='Prices'!$CJ$214:$CJ$789"/>
+      <definedName name="sector_CER" refersTo="='Control'!$C$38:$C$59"/>
+      <definedName name="sector_CIMS" refersTo="='Control'!$B$38:$B$59"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -366,7 +369,7 @@
         </row>
         <row r="44">
           <cell r="B44" t="str">
-            <v>Petroleum Crude</v>
+            <v>Natural Gas Production</v>
           </cell>
           <cell r="C44" t="str">
             <v>Industrial</v>
@@ -374,7 +377,7 @@
         </row>
         <row r="45">
           <cell r="B45" t="str">
-            <v>Petroleum Refining</v>
+            <v>Petroleum Crude</v>
           </cell>
           <cell r="C45" t="str">
             <v>Industrial</v>
@@ -382,7 +385,7 @@
         </row>
         <row r="46">
           <cell r="B46" t="str">
-            <v>Mining</v>
+            <v>Petroleum Refining</v>
           </cell>
           <cell r="C46" t="str">
             <v>Industrial</v>
@@ -390,7 +393,7 @@
         </row>
         <row r="47">
           <cell r="B47" t="str">
-            <v>Industrial Minerals</v>
+            <v>Mining</v>
           </cell>
           <cell r="C47" t="str">
             <v>Industrial</v>
@@ -398,7 +401,7 @@
         </row>
         <row r="48">
           <cell r="B48" t="str">
-            <v>Chemical Products</v>
+            <v>Industrial Minerals</v>
           </cell>
           <cell r="C48" t="str">
             <v>Industrial</v>
@@ -406,7 +409,7 @@
         </row>
         <row r="49">
           <cell r="B49" t="str">
-            <v>Pulp and paper</v>
+            <v>Chemical Products</v>
           </cell>
           <cell r="C49" t="str">
             <v>Industrial</v>
@@ -414,7 +417,7 @@
         </row>
         <row r="50">
           <cell r="B50" t="str">
-            <v>Metal Smelting</v>
+            <v>Pulp and paper</v>
           </cell>
           <cell r="C50" t="str">
             <v>Industrial</v>
@@ -422,7 +425,7 @@
         </row>
         <row r="51">
           <cell r="B51" t="str">
-            <v>Iron and Steel</v>
+            <v>Metal Smelting</v>
           </cell>
           <cell r="C51" t="str">
             <v>Industrial</v>
@@ -430,7 +433,7 @@
         </row>
         <row r="52">
           <cell r="B52" t="str">
-            <v>Light Industrial</v>
+            <v>Iron and Steel</v>
           </cell>
           <cell r="C52" t="str">
             <v>Industrial</v>
@@ -438,7 +441,7 @@
         </row>
         <row r="53">
           <cell r="B53" t="str">
-            <v>Waste</v>
+            <v>Light Industrial</v>
           </cell>
           <cell r="C53" t="str">
             <v>Industrial</v>
@@ -446,7 +449,7 @@
         </row>
         <row r="54">
           <cell r="B54" t="str">
-            <v>Agriculture</v>
+            <v>Waste</v>
           </cell>
           <cell r="C54" t="str">
             <v>Industrial</v>
@@ -454,7 +457,7 @@
         </row>
         <row r="55">
           <cell r="B55" t="str">
-            <v>Electricity</v>
+            <v>Agriculture</v>
           </cell>
           <cell r="C55" t="str">
             <v>Industrial</v>
@@ -462,7 +465,7 @@
         </row>
         <row r="56">
           <cell r="B56" t="str">
-            <v>Ethanol</v>
+            <v>Electricity</v>
           </cell>
           <cell r="C56" t="str">
             <v>Industrial</v>
@@ -470,7 +473,7 @@
         </row>
         <row r="57">
           <cell r="B57" t="str">
-            <v>Biodiesel</v>
+            <v>Ethanol</v>
           </cell>
           <cell r="C57" t="str">
             <v>Industrial</v>
@@ -478,9 +481,17 @@
         </row>
         <row r="58">
           <cell r="B58" t="str">
+            <v>Biodiesel</v>
+          </cell>
+          <cell r="C58" t="str">
+            <v>Industrial</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59" t="str">
             <v>Hydrogen</v>
           </cell>
-          <cell r="C58" t="str">
+          <cell r="C59" t="str">
             <v>Industrial</v>
           </cell>
         </row>
@@ -523,146 +534,146 @@
           </cell>
         </row>
         <row r="11">
-          <cell r="K11" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="L11" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="M11" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="N11" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="O11" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="P11" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="Q11" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="R11" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="S11" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="T11" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="U11" t="e">
-            <v>#N/A</v>
+          <cell r="K11">
+            <v>14.311056498313594</v>
+          </cell>
+          <cell r="L11">
+            <v>14.311058874991911</v>
+          </cell>
+          <cell r="M11">
+            <v>18.694133190132003</v>
+          </cell>
+          <cell r="N11">
+            <v>11.21620037411093</v>
+          </cell>
+          <cell r="O11">
+            <v>13.423701887148971</v>
+          </cell>
+          <cell r="P11">
+            <v>14.010283766575347</v>
+          </cell>
+          <cell r="Q11">
+            <v>13.272900410439801</v>
+          </cell>
+          <cell r="R11">
+            <v>13.272900410439801</v>
+          </cell>
+          <cell r="S11">
+            <v>13.272900410439801</v>
+          </cell>
+          <cell r="T11">
+            <v>13.272900410439801</v>
+          </cell>
+          <cell r="U11">
+            <v>13.272900410439801</v>
           </cell>
         </row>
         <row r="12">
-          <cell r="K12" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="L12" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="M12" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="N12" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="O12" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="P12" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="Q12" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="R12" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="S12" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="T12" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="U12" t="e">
-            <v>#N/A</v>
+          <cell r="K12">
+            <v>14.843025717835181</v>
+          </cell>
+          <cell r="L12">
+            <v>14.843028182859156</v>
+          </cell>
+          <cell r="M12">
+            <v>18.664247274966481</v>
+          </cell>
+          <cell r="N12">
+            <v>10.433724621712123</v>
+          </cell>
+          <cell r="O12">
+            <v>12.916218165078719</v>
+          </cell>
+          <cell r="P12">
+            <v>13.56785375289402</v>
+          </cell>
+          <cell r="Q12">
+            <v>12.830470396758475</v>
+          </cell>
+          <cell r="R12">
+            <v>12.830470396758475</v>
+          </cell>
+          <cell r="S12">
+            <v>12.830470396758475</v>
+          </cell>
+          <cell r="T12">
+            <v>12.830470396758475</v>
+          </cell>
+          <cell r="U12">
+            <v>12.830470396758475</v>
           </cell>
         </row>
         <row r="13">
-          <cell r="K13" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="L13" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="M13" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="N13" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="O13" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="P13" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="Q13" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="R13" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="S13" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="T13" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="U13" t="e">
-            <v>#N/A</v>
+          <cell r="K13">
+            <v>9.6149836503272237</v>
+          </cell>
+          <cell r="L13">
+            <v>9.6149852471152126</v>
+          </cell>
+          <cell r="M13">
+            <v>15.410667310609007</v>
+          </cell>
+          <cell r="N13">
+            <v>7.5082166053163277</v>
+          </cell>
+          <cell r="O13">
+            <v>10.411748124742546</v>
+          </cell>
+          <cell r="P13">
+            <v>11.35570368448739</v>
+          </cell>
+          <cell r="Q13">
+            <v>10.618320328351839</v>
+          </cell>
+          <cell r="R13">
+            <v>10.618320328351839</v>
+          </cell>
+          <cell r="S13">
+            <v>10.618320328351839</v>
+          </cell>
+          <cell r="T13">
+            <v>10.618320328351839</v>
+          </cell>
+          <cell r="U13">
+            <v>10.618320328351839</v>
           </cell>
           <cell r="CJ13" t="str">
-            <v>CANProduction costCIMS.Generic Fuels.Crude Oil</v>
+            <v>CANProduction costCIMS.Generic Fuels.Fuel Oil</v>
           </cell>
         </row>
         <row r="14">
-          <cell r="K14" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="L14" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="M14" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="N14" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="O14" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="P14" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="Q14" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="R14" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="S14" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="T14" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="U14" t="e">
-            <v>#N/A</v>
+          <cell r="K14">
+            <v>11.637263642141473</v>
+          </cell>
+          <cell r="L14">
+            <v>11.63726557477532</v>
+          </cell>
+          <cell r="M14">
+            <v>15.420629282330859</v>
+          </cell>
+          <cell r="N14">
+            <v>12.315953965838542</v>
+          </cell>
+          <cell r="O14">
+            <v>15.207469298306304</v>
+          </cell>
+          <cell r="P14">
+            <v>17.063050860976503</v>
+          </cell>
+          <cell r="Q14">
+            <v>15.732811286507976</v>
+          </cell>
+          <cell r="R14">
+            <v>15.732811286507976</v>
+          </cell>
+          <cell r="S14">
+            <v>15.980572094169517</v>
+          </cell>
+          <cell r="T14">
+            <v>15.980572094169517</v>
+          </cell>
+          <cell r="U14">
+            <v>15.980572094169517</v>
           </cell>
         </row>
         <row r="15">
@@ -1122,7 +1133,7 @@
             <v>40.396715879430587</v>
           </cell>
           <cell r="CJ29" t="str">
-            <v>CANResidentialElectricity</v>
+            <v>CANResidentialCIMS.CAN.CAN.Electricity</v>
           </cell>
         </row>
         <row r="30">
@@ -1730,7 +1741,7 @@
             <v>12.137549545562575</v>
           </cell>
           <cell r="CJ45" t="str">
-            <v>CANResidentialNatural Gas</v>
+            <v>CANResidentialCIMS.Generic Fuels.Natural Gas</v>
           </cell>
         </row>
         <row r="46">
@@ -2338,7 +2349,7 @@
             <v>34.363700783599278</v>
           </cell>
           <cell r="CJ61" t="str">
-            <v>CANResidentialFuel Oil</v>
+            <v>CANResidentialCIMS.Generic Fuels.Fuel Oil</v>
           </cell>
         </row>
         <row r="62">
@@ -2972,7 +2983,7 @@
             <v>38.497305635386681</v>
           </cell>
           <cell r="CJ79" t="str">
-            <v>CANCommercialElectricity</v>
+            <v>CANCommercialCIMS.CAN.CAN.Electricity</v>
           </cell>
         </row>
         <row r="80">
@@ -3580,7 +3591,7 @@
             <v>9.4059162804230709</v>
           </cell>
           <cell r="CJ95" t="str">
-            <v>CANCommercialNatural Gas</v>
+            <v>CANCommercialCIMS.Generic Fuels.Natural Gas</v>
           </cell>
         </row>
         <row r="96">
@@ -4188,7 +4199,7 @@
             <v>27.78834889278102</v>
           </cell>
           <cell r="CJ111" t="str">
-            <v>CANCommercialFuel Oil</v>
+            <v>CANCommercialCIMS.Generic Fuels.Fuel Oil</v>
           </cell>
         </row>
         <row r="112">
@@ -4822,7 +4833,7 @@
             <v>31.722706095772264</v>
           </cell>
           <cell r="CJ129" t="str">
-            <v>CANIndustrialElectricity</v>
+            <v>CANIndustrialCIMS.CAN.CAN.Electricity</v>
           </cell>
         </row>
         <row r="130">
@@ -5430,7 +5441,7 @@
             <v>8.9887444545807025</v>
           </cell>
           <cell r="CJ145" t="str">
-            <v>CANIndustrialNatural Gas</v>
+            <v>CANIndustrialCIMS.Generic Fuels.Natural Gas</v>
           </cell>
         </row>
         <row r="146">
@@ -6038,7 +6049,7 @@
             <v>25.911080099893603</v>
           </cell>
           <cell r="CJ161" t="str">
-            <v>CANIndustrialFuel Oil</v>
+            <v>CANIndustrialCIMS.Generic Fuels.Fuel Oil</v>
           </cell>
         </row>
         <row r="162">
@@ -6672,7 +6683,7 @@
             <v>38.386439027034868</v>
           </cell>
           <cell r="CJ179" t="str">
-            <v>CANTransportationGasoline</v>
+            <v>CANTransportationCIMS.Generic Fuels.Gasoline</v>
           </cell>
         </row>
         <row r="180">
@@ -7280,7 +7291,7 @@
             <v>34.530946602193538</v>
           </cell>
           <cell r="CJ195" t="str">
-            <v>CANTransportationDiesel</v>
+            <v>CANTransportationCIMS.Generic Fuels.Diesel</v>
           </cell>
         </row>
         <row r="196">
@@ -15606,117 +15617,117 @@
           </cell>
         </row>
         <row r="418">
-          <cell r="K418">
-            <v>0.98583549701105511</v>
-          </cell>
-          <cell r="L418">
-            <v>1.0278629149178193</v>
-          </cell>
-          <cell r="M418">
-            <v>0.94842657165578259</v>
-          </cell>
-          <cell r="N418">
-            <v>1.0541287502183971</v>
-          </cell>
-          <cell r="O418">
-            <v>0.91575138901299169</v>
-          </cell>
-          <cell r="P418">
-            <v>0.88796456224316911</v>
-          </cell>
-          <cell r="Q418">
-            <v>0.85093845623382547</v>
-          </cell>
-          <cell r="R418">
-            <v>0.80449643553785266</v>
-          </cell>
-          <cell r="S418">
-            <v>0.76342967220455771</v>
-          </cell>
-          <cell r="T418">
-            <v>0.7454032543521093</v>
-          </cell>
-          <cell r="U418">
-            <v>0.73231029261772718</v>
+          <cell r="K418" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="L418" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="M418" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="N418" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="O418" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="P418" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="Q418" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="R418" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="S418" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="T418" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="U418" t="e">
+            <v>#N/A</v>
           </cell>
           <cell r="CJ418" t="str">
-            <v>BCNatural Gas ExtractionCIMS.CAN.BC.Electricity</v>
+            <v>BCNatural Gas ProductionCIMS.CAN.BC.Electricity</v>
           </cell>
         </row>
         <row r="419">
-          <cell r="K419">
-            <v>0.41345301693417214</v>
-          </cell>
-          <cell r="L419">
-            <v>0.50493177808367828</v>
-          </cell>
-          <cell r="M419">
-            <v>0.68713239695247652</v>
-          </cell>
-          <cell r="N419">
-            <v>0.73333326558627177</v>
-          </cell>
-          <cell r="O419">
-            <v>0.86857088815088634</v>
-          </cell>
-          <cell r="P419">
-            <v>0.94915303467877266</v>
-          </cell>
-          <cell r="Q419">
-            <v>1.0195838319622903</v>
-          </cell>
-          <cell r="R419">
-            <v>1.0773218736949322</v>
-          </cell>
-          <cell r="S419">
-            <v>1.1219159072144744</v>
-          </cell>
-          <cell r="T419">
-            <v>1.1300591437564469</v>
-          </cell>
-          <cell r="U419">
-            <v>1.1440244705162961</v>
+          <cell r="K419" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="L419" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="M419" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="N419" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="O419" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="P419" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="Q419" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="R419" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="S419" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="T419" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="U419" t="e">
+            <v>#N/A</v>
           </cell>
           <cell r="CJ419" t="str">
-            <v>BCNatural Gas ExtractionCIMS.Generic Fuels.Diesel</v>
+            <v>BCNatural Gas ProductionCIMS.Generic Fuels.Diesel</v>
           </cell>
         </row>
         <row r="420">
-          <cell r="K420">
-            <v>1.1471505050640394</v>
-          </cell>
-          <cell r="L420">
-            <v>0.8678992822990087</v>
-          </cell>
-          <cell r="M420">
-            <v>0.9046542253521126</v>
-          </cell>
-          <cell r="N420">
-            <v>0.64546563977253557</v>
-          </cell>
-          <cell r="O420">
-            <v>2.6996291779954245</v>
-          </cell>
-          <cell r="P420">
-            <v>2.7288077673117681</v>
-          </cell>
-          <cell r="Q420">
-            <v>2.9357783377385482</v>
-          </cell>
-          <cell r="R420">
-            <v>2.7325825457151267</v>
-          </cell>
-          <cell r="S420">
-            <v>2.3832401766109541</v>
-          </cell>
-          <cell r="T420">
-            <v>2.0295437546404238</v>
-          </cell>
-          <cell r="U420">
-            <v>1.8005043340540439</v>
+          <cell r="K420" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="L420" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="M420" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="N420" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="O420" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="P420" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="Q420" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="R420" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="S420" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="T420" t="e">
+            <v>#N/A</v>
+          </cell>
+          <cell r="U420" t="e">
+            <v>#N/A</v>
           </cell>
           <cell r="CJ420" t="str">
-            <v>BCNatural Gas ExtractionCIMS.Generic Fuels.Natural Gas</v>
+            <v>BCNatural Gas ProductionCIMS.Generic Fuels.Natural Gas</v>
           </cell>
         </row>
         <row r="421">
@@ -28827,6 +28838,918 @@
           </cell>
           <cell r="CJ765" t="str">
             <v>SKCIMS.Generic Fuels.Diesel Rail</v>
+          </cell>
+        </row>
+        <row r="766">
+          <cell r="K766">
+            <v>0.63865561347382316</v>
+          </cell>
+          <cell r="L766">
+            <v>1.0117098305604184</v>
+          </cell>
+          <cell r="M766">
+            <v>1.0587142166970536</v>
+          </cell>
+          <cell r="N766">
+            <v>1.6976859325444575</v>
+          </cell>
+          <cell r="O766">
+            <v>1.5115373799594651</v>
+          </cell>
+          <cell r="P766">
+            <v>1.5905142721277197</v>
+          </cell>
+          <cell r="Q766">
+            <v>1.7373185900566273</v>
+          </cell>
+          <cell r="R766">
+            <v>1.5983000143145021</v>
+          </cell>
+          <cell r="S766">
+            <v>1.4618851880783916</v>
+          </cell>
+          <cell r="T766">
+            <v>1.3450607987081709</v>
+          </cell>
+          <cell r="U766">
+            <v>1.2628374078861169</v>
+          </cell>
+          <cell r="CJ766" t="str">
+            <v>ABHydrogenCIMS.CAN.AB.Electricity</v>
+          </cell>
+        </row>
+        <row r="767">
+          <cell r="K767">
+            <v>0.30553101011528505</v>
+          </cell>
+          <cell r="L767">
+            <v>0.39209782987385311</v>
+          </cell>
+          <cell r="M767">
+            <v>0.69300988648821216</v>
+          </cell>
+          <cell r="N767">
+            <v>0.68320422382580237</v>
+          </cell>
+          <cell r="O767">
+            <v>0.83908789352027269</v>
+          </cell>
+          <cell r="P767">
+            <v>0.93321376203586048</v>
+          </cell>
+          <cell r="Q767">
+            <v>1.0035861596260396</v>
+          </cell>
+          <cell r="R767">
+            <v>1.0793210507397735</v>
+          </cell>
+          <cell r="S767">
+            <v>1.1369870564862576</v>
+          </cell>
+          <cell r="T767">
+            <v>1.1439649553888809</v>
+          </cell>
+          <cell r="U767">
+            <v>1.1577577370943368</v>
+          </cell>
+          <cell r="CJ767" t="str">
+            <v>ABHydrogenCIMS.Generic Fuels.Fuel Oil</v>
+          </cell>
+        </row>
+        <row r="768">
+          <cell r="K768">
+            <v>1.1564301937148955</v>
+          </cell>
+          <cell r="L768">
+            <v>0.84609793767602337</v>
+          </cell>
+          <cell r="M768">
+            <v>0.81132676056338038</v>
+          </cell>
+          <cell r="N768">
+            <v>0.44280497626542659</v>
+          </cell>
+          <cell r="O768">
+            <v>1.9148442617943071</v>
+          </cell>
+          <cell r="P768">
+            <v>1.9837531281365104</v>
+          </cell>
+          <cell r="Q768">
+            <v>2.1434783377385482</v>
+          </cell>
+          <cell r="R768">
+            <v>2.0033718140078101</v>
+          </cell>
+          <cell r="S768">
+            <v>1.7629571890590872</v>
+          </cell>
+          <cell r="T768">
+            <v>1.5013168995167492</v>
+          </cell>
+          <cell r="U768">
+            <v>1.3318892870321004</v>
+          </cell>
+          <cell r="CJ768" t="str">
+            <v>ABHydrogenCIMS.Generic Fuels.Natural Gas</v>
+          </cell>
+        </row>
+        <row r="769">
+          <cell r="K769">
+            <v>1.660905867200362</v>
+          </cell>
+          <cell r="L769">
+            <v>1.0256458869579403</v>
+          </cell>
+          <cell r="M769">
+            <v>1.1000876007214078</v>
+          </cell>
+          <cell r="N769">
+            <v>0.83923067650278105</v>
+          </cell>
+          <cell r="O769">
+            <v>0.97236410037095322</v>
+          </cell>
+          <cell r="P769">
+            <v>1.0206640135484535</v>
+          </cell>
+          <cell r="Q769">
+            <v>1.0525680103828272</v>
+          </cell>
+          <cell r="R769">
+            <v>1.0692227540092065</v>
+          </cell>
+          <cell r="S769">
+            <v>1.0877589267070964</v>
+          </cell>
+          <cell r="T769">
+            <v>1.0877589267070964</v>
+          </cell>
+          <cell r="U769">
+            <v>1.0877589267070964</v>
+          </cell>
+          <cell r="CJ769" t="str">
+            <v>ABHydrogenCIMS.Generic Fuels.Propane</v>
+          </cell>
+        </row>
+        <row r="770">
+          <cell r="K770">
+            <v>0.73346845447680231</v>
+          </cell>
+          <cell r="L770">
+            <v>0.75092344154490287</v>
+          </cell>
+          <cell r="M770">
+            <v>0.5452142327792967</v>
+          </cell>
+          <cell r="N770">
+            <v>0.66555464367691175</v>
+          </cell>
+          <cell r="O770">
+            <v>0.69854914432225723</v>
+          </cell>
+          <cell r="P770">
+            <v>0.71826372535880367</v>
+          </cell>
+          <cell r="Q770">
+            <v>0.79412019415831414</v>
+          </cell>
+          <cell r="R770">
+            <v>0.81300857334867738</v>
+          </cell>
+          <cell r="S770">
+            <v>0.80203303903679179</v>
+          </cell>
+          <cell r="T770">
+            <v>0.80975658962008679</v>
+          </cell>
+          <cell r="U770">
+            <v>0.81931696218035333</v>
+          </cell>
+          <cell r="CJ770" t="str">
+            <v>ATHydrogenCIMS.CAN.AT.Electricity</v>
+          </cell>
+        </row>
+        <row r="771">
+          <cell r="K771">
+            <v>0.36972923656171891</v>
+          </cell>
+          <cell r="L771">
+            <v>0.47663033903644852</v>
+          </cell>
+          <cell r="M771">
+            <v>0.84774708529520038</v>
+          </cell>
+          <cell r="N771">
+            <v>0.83575198666310346</v>
+          </cell>
+          <cell r="O771">
+            <v>1.0264418010584921</v>
+          </cell>
+          <cell r="P771">
+            <v>1.1415843585324221</v>
+          </cell>
+          <cell r="Q771">
+            <v>1.2276697032085582</v>
+          </cell>
+          <cell r="R771">
+            <v>1.3203148940617067</v>
+          </cell>
+          <cell r="S771">
+            <v>1.3908567279450952</v>
+          </cell>
+          <cell r="T771">
+            <v>1.3993926717628089</v>
+          </cell>
+          <cell r="U771">
+            <v>1.4162651446046695</v>
+          </cell>
+          <cell r="CJ771" t="str">
+            <v>ATHydrogenCIMS.Generic Fuels.Fuel Oil</v>
+          </cell>
+        </row>
+        <row r="772">
+          <cell r="K772">
+            <v>1.259340965045914</v>
+          </cell>
+          <cell r="L772">
+            <v>1.0014371828409649</v>
+          </cell>
+          <cell r="M772">
+            <v>1.0728427605633803</v>
+          </cell>
+          <cell r="N772">
+            <v>0.99884051654978678</v>
+          </cell>
+          <cell r="O772">
+            <v>3.2963223735261504</v>
+          </cell>
+          <cell r="P772">
+            <v>3.2829171075179535</v>
+          </cell>
+          <cell r="Q772">
+            <v>3.5142143377385482</v>
+          </cell>
+          <cell r="R772">
+            <v>3.2587692871785414</v>
+          </cell>
+          <cell r="S772">
+            <v>2.8308264089760953</v>
+          </cell>
+          <cell r="T772">
+            <v>2.4107037617075582</v>
+          </cell>
+          <cell r="U772">
+            <v>2.1386494186935394</v>
+          </cell>
+          <cell r="CJ772" t="str">
+            <v>ATHydrogenCIMS.Generic Fuels.Natural Gas</v>
+          </cell>
+        </row>
+        <row r="773">
+          <cell r="K773">
+            <v>1.6774919592238944</v>
+          </cell>
+          <cell r="L773">
+            <v>1.0405707573377196</v>
+          </cell>
+          <cell r="M773">
+            <v>1.1231585677941784</v>
+          </cell>
+          <cell r="N773">
+            <v>0.85683096878073983</v>
+          </cell>
+          <cell r="O773">
+            <v>0.99275645833198334</v>
+          </cell>
+          <cell r="P773">
+            <v>1.0420693142113233</v>
+          </cell>
+          <cell r="Q773">
+            <v>1.0746423996346186</v>
+          </cell>
+          <cell r="R773">
+            <v>1.0916464254832121</v>
+          </cell>
+          <cell r="S773">
+            <v>1.1105713376139321</v>
+          </cell>
+          <cell r="T773">
+            <v>1.1105713376139321</v>
+          </cell>
+          <cell r="U773">
+            <v>1.1105713376139321</v>
+          </cell>
+          <cell r="CJ773" t="str">
+            <v>ATHydrogenCIMS.Generic Fuels.Propane</v>
+          </cell>
+        </row>
+        <row r="774">
+          <cell r="K774">
+            <v>0.98583549701105511</v>
+          </cell>
+          <cell r="L774">
+            <v>1.0278629149178193</v>
+          </cell>
+          <cell r="M774">
+            <v>0.94842657165578259</v>
+          </cell>
+          <cell r="N774">
+            <v>1.0541287502183971</v>
+          </cell>
+          <cell r="O774">
+            <v>0.91575138901299169</v>
+          </cell>
+          <cell r="P774">
+            <v>0.88796456224316911</v>
+          </cell>
+          <cell r="Q774">
+            <v>0.85093845623382547</v>
+          </cell>
+          <cell r="R774">
+            <v>0.80449643553785266</v>
+          </cell>
+          <cell r="S774">
+            <v>0.76342967220455771</v>
+          </cell>
+          <cell r="T774">
+            <v>0.7454032543521093</v>
+          </cell>
+          <cell r="U774">
+            <v>0.73231029261772718</v>
+          </cell>
+          <cell r="CJ774" t="str">
+            <v>BCHydrogenCIMS.CAN.BC.Electricity</v>
+          </cell>
+        </row>
+        <row r="775">
+          <cell r="K775">
+            <v>0.29281919307611443</v>
+          </cell>
+          <cell r="L775">
+            <v>0.43377105511052705</v>
+          </cell>
+          <cell r="M775">
+            <v>0.76666486463526429</v>
+          </cell>
+          <cell r="N775">
+            <v>0.82381621870640764</v>
+          </cell>
+          <cell r="O775">
+            <v>1.0333053780002321</v>
+          </cell>
+          <cell r="P775">
+            <v>1.1378896304040784</v>
+          </cell>
+          <cell r="Q775">
+            <v>1.2165000744549896</v>
+          </cell>
+          <cell r="R775">
+            <v>1.3046545765827691</v>
+          </cell>
+          <cell r="S775">
+            <v>1.3699180697594151</v>
+          </cell>
+          <cell r="T775">
+            <v>1.3783255091767113</v>
+          </cell>
+          <cell r="U775">
+            <v>1.3949439753085457</v>
+          </cell>
+          <cell r="CJ775" t="str">
+            <v>BCHydrogenCIMS.Generic Fuels.Fuel Oil</v>
+          </cell>
+        </row>
+        <row r="776">
+          <cell r="K776">
+            <v>1.5370090061779003</v>
+          </cell>
+          <cell r="L776">
+            <v>1.160293158134386</v>
+          </cell>
+          <cell r="M776">
+            <v>0.9046542253521126</v>
+          </cell>
+          <cell r="N776">
+            <v>0.64546563977253557</v>
+          </cell>
+          <cell r="O776">
+            <v>2.6996291779954245</v>
+          </cell>
+          <cell r="P776">
+            <v>2.7288077673117681</v>
+          </cell>
+          <cell r="Q776">
+            <v>2.9357783377385482</v>
+          </cell>
+          <cell r="R776">
+            <v>2.7325825457151267</v>
+          </cell>
+          <cell r="S776">
+            <v>2.3832401766109541</v>
+          </cell>
+          <cell r="T776">
+            <v>2.0295437546404238</v>
+          </cell>
+          <cell r="U776">
+            <v>1.8005043340540439</v>
+          </cell>
+          <cell r="CJ776" t="str">
+            <v>BCHydrogenCIMS.Generic Fuels.Natural Gas</v>
+          </cell>
+        </row>
+        <row r="777">
+          <cell r="K777">
+            <v>1.490280034875286</v>
+          </cell>
+          <cell r="L777">
+            <v>1.0622877989500752</v>
+          </cell>
+          <cell r="M777">
+            <v>1.1393889946643301</v>
+          </cell>
+          <cell r="N777">
+            <v>0.94741392973321803</v>
+          </cell>
+          <cell r="O777">
+            <v>1.1210597791114862</v>
+          </cell>
+          <cell r="P777">
+            <v>1.1651462136164219</v>
+          </cell>
+          <cell r="Q777">
+            <v>1.1945003015085274</v>
+          </cell>
+          <cell r="R777">
+            <v>1.2100176558892135</v>
+          </cell>
+          <cell r="S777">
+            <v>1.2270163506420799</v>
+          </cell>
+          <cell r="T777">
+            <v>1.2270163506420799</v>
+          </cell>
+          <cell r="U777">
+            <v>1.2270163506420799</v>
+          </cell>
+          <cell r="CJ777" t="str">
+            <v>BCHydrogenCIMS.Generic Fuels.Propane</v>
+          </cell>
+        </row>
+        <row r="778">
+          <cell r="K778">
+            <v>0.44772298585002823</v>
+          </cell>
+          <cell r="L778">
+            <v>0.61189743224509852</v>
+          </cell>
+          <cell r="M778">
+            <v>0.68795756514097273</v>
+          </cell>
+          <cell r="N778">
+            <v>0.9324527843710354</v>
+          </cell>
+          <cell r="O778">
+            <v>0.97994706543784871</v>
+          </cell>
+          <cell r="P778">
+            <v>1.0170834473262618</v>
+          </cell>
+          <cell r="Q778">
+            <v>1.057789172456794</v>
+          </cell>
+          <cell r="R778">
+            <v>1.0824309226532769</v>
+          </cell>
+          <cell r="S778">
+            <v>1.0731696204554764</v>
+          </cell>
+          <cell r="T778">
+            <v>1.0660915381246665</v>
+          </cell>
+          <cell r="U778">
+            <v>1.0594380911888075</v>
+          </cell>
+          <cell r="CJ778" t="str">
+            <v>ONHydrogenCIMS.CAN.ON.Electricity</v>
+          </cell>
+        </row>
+        <row r="779">
+          <cell r="K779">
+            <v>0.3439293744520352</v>
+          </cell>
+          <cell r="L779">
+            <v>0.44461532246086144</v>
+          </cell>
+          <cell r="M779">
+            <v>0.79388346819127698</v>
+          </cell>
+          <cell r="N779">
+            <v>0.78265050653499268</v>
+          </cell>
+          <cell r="O779">
+            <v>0.96122439233991919</v>
+          </cell>
+          <cell r="P779">
+            <v>1.0690510949607657</v>
+          </cell>
+          <cell r="Q779">
+            <v>1.1496668035575528</v>
+          </cell>
+          <cell r="R779">
+            <v>1.2364255629818062</v>
+          </cell>
+          <cell r="S779">
+            <v>1.3024853545249624</v>
+          </cell>
+          <cell r="T779">
+            <v>1.310478946953455</v>
+          </cell>
+          <cell r="U779">
+            <v>1.3262793873076617</v>
+          </cell>
+          <cell r="CJ779" t="str">
+            <v>ONHydrogenCIMS.Generic Fuels.Fuel Oil</v>
+          </cell>
+        </row>
+        <row r="780">
+          <cell r="K780">
+            <v>1.2423906483858331</v>
+          </cell>
+          <cell r="L780">
+            <v>0.97330022312368425</v>
+          </cell>
+          <cell r="M780">
+            <v>1.4363096830985915</v>
+          </cell>
+          <cell r="N780">
+            <v>1.1684473933270378</v>
+          </cell>
+          <cell r="O780">
+            <v>3.6719727534144191</v>
+          </cell>
+          <cell r="P780">
+            <v>3.6050211693736238</v>
+          </cell>
+          <cell r="Q780">
+            <v>3.8344783377385481</v>
+          </cell>
+          <cell r="R780">
+            <v>3.5385069359590293</v>
+          </cell>
+          <cell r="S780">
+            <v>3.0687775210092942</v>
+          </cell>
+          <cell r="T780">
+            <v>2.6133405744284097</v>
+          </cell>
+          <cell r="U780">
+            <v>2.318418127157492</v>
+          </cell>
+          <cell r="CJ780" t="str">
+            <v>ONHydrogenCIMS.Generic Fuels.Natural Gas</v>
+          </cell>
+        </row>
+        <row r="781">
+          <cell r="K781">
+            <v>1.6075761843233747</v>
+          </cell>
+          <cell r="L781">
+            <v>1</v>
+          </cell>
+          <cell r="M781">
+            <v>1.0835704881049377</v>
+          </cell>
+          <cell r="N781">
+            <v>0.82663016397459643</v>
+          </cell>
+          <cell r="O781">
+            <v>0.95776467452567804</v>
+          </cell>
+          <cell r="P781">
+            <v>1.0053393953595899</v>
+          </cell>
+          <cell r="Q781">
+            <v>1.0367643740609698</v>
+          </cell>
+          <cell r="R781">
+            <v>1.0531690573504311</v>
+          </cell>
+          <cell r="S781">
+            <v>1.0714269212557048</v>
+          </cell>
+          <cell r="T781">
+            <v>1.0714269212557048</v>
+          </cell>
+          <cell r="U781">
+            <v>1.0714269212557048</v>
+          </cell>
+          <cell r="CJ781" t="str">
+            <v>ONHydrogenCIMS.Generic Fuels.Propane</v>
+          </cell>
+        </row>
+        <row r="782">
+          <cell r="K782">
+            <v>1.2659442781791261</v>
+          </cell>
+          <cell r="L782">
+            <v>1.197104555406443</v>
+          </cell>
+          <cell r="M782">
+            <v>1.1654770349589358</v>
+          </cell>
+          <cell r="N782">
+            <v>1.0674971881523396</v>
+          </cell>
+          <cell r="O782">
+            <v>0.95618875078376731</v>
+          </cell>
+          <cell r="P782">
+            <v>0.87977740362114032</v>
+          </cell>
+          <cell r="Q782">
+            <v>0.81216642105625259</v>
+          </cell>
+          <cell r="R782">
+            <v>0.7923274872377285</v>
+          </cell>
+          <cell r="S782">
+            <v>0.76126218276669766</v>
+          </cell>
+          <cell r="T782">
+            <v>0.7460662271580869</v>
+          </cell>
+          <cell r="U782">
+            <v>0.73465924946767369</v>
+          </cell>
+          <cell r="CJ782" t="str">
+            <v>QCHydrogenCIMS.CAN.QC.Electricity</v>
+          </cell>
+        </row>
+        <row r="783">
+          <cell r="K783">
+            <v>0.29348320277223716</v>
+          </cell>
+          <cell r="L783">
+            <v>0.47796147565761538</v>
+          </cell>
+          <cell r="M783">
+            <v>0.85342473546959197</v>
+          </cell>
+          <cell r="N783">
+            <v>0.95608598376109399</v>
+          </cell>
+          <cell r="O783">
+            <v>1.2621381694313767</v>
+          </cell>
+          <cell r="P783">
+            <v>1.4442834684638517</v>
+          </cell>
+          <cell r="Q783">
+            <v>1.6108187328524948</v>
+          </cell>
+          <cell r="R783">
+            <v>1.8222281805752798</v>
+          </cell>
+          <cell r="S783">
+            <v>1.8997884260436417</v>
+          </cell>
+          <cell r="T783">
+            <v>1.9114477773948122</v>
+          </cell>
+          <cell r="U783">
+            <v>1.9344940969615014</v>
+          </cell>
+          <cell r="CJ783" t="str">
+            <v>QCHydrogenCIMS.Generic Fuels.Fuel Oil</v>
+          </cell>
+        </row>
+        <row r="784">
+          <cell r="K784">
+            <v>1.1421255072651149</v>
+          </cell>
+          <cell r="L784">
+            <v>1.0242972006164817</v>
+          </cell>
+          <cell r="M784">
+            <v>1.1759260563380283</v>
+          </cell>
+          <cell r="N784">
+            <v>1.6068476302938626</v>
+          </cell>
+          <cell r="O784">
+            <v>5.5327520830233574</v>
+          </cell>
+          <cell r="P784">
+            <v>5.7226886951468048</v>
+          </cell>
+          <cell r="Q784">
+            <v>6.531528337738548</v>
+          </cell>
+          <cell r="R784">
+            <v>6.5467166920565862</v>
+          </cell>
+          <cell r="S784">
+            <v>5.627628143415933</v>
+          </cell>
+          <cell r="T784">
+            <v>4.7924324472199293</v>
+          </cell>
+          <cell r="U784">
+            <v>4.2515936757468342</v>
+          </cell>
+          <cell r="CJ784" t="str">
+            <v>QCHydrogenCIMS.Generic Fuels.Natural Gas</v>
+          </cell>
+        </row>
+        <row r="785">
+          <cell r="K785">
+            <v>1.2777818542774948</v>
+          </cell>
+          <cell r="L785">
+            <v>1.0013355629212271</v>
+          </cell>
+          <cell r="M785">
+            <v>1.0850176646713845</v>
+          </cell>
+          <cell r="N785">
+            <v>0.94061413830216722</v>
+          </cell>
+          <cell r="O785">
+            <v>1.1714185722895649</v>
+          </cell>
+          <cell r="P785">
+            <v>1.2651378572910119</v>
+          </cell>
+          <cell r="Q785">
+            <v>1.353087612805927</v>
+          </cell>
+          <cell r="R785">
+            <v>1.4457861055961803</v>
+          </cell>
+          <cell r="S785">
+            <v>1.4556806734034666</v>
+          </cell>
+          <cell r="T785">
+            <v>1.4556806734034666</v>
+          </cell>
+          <cell r="U785">
+            <v>1.4556806734034666</v>
+          </cell>
+          <cell r="CJ785" t="str">
+            <v>QCHydrogenCIMS.Generic Fuels.Propane</v>
+          </cell>
+        </row>
+        <row r="786">
+          <cell r="K786">
+            <v>0.46203827830438349</v>
+          </cell>
+          <cell r="L786">
+            <v>0.46775090000426311</v>
+          </cell>
+          <cell r="M786">
+            <v>0.43768026427101836</v>
+          </cell>
+          <cell r="N786">
+            <v>0.48216749913258572</v>
+          </cell>
+          <cell r="O786">
+            <v>0.51008399579506591</v>
+          </cell>
+          <cell r="P786">
+            <v>0.55296076023518015</v>
+          </cell>
+          <cell r="Q786">
+            <v>0.60577882909220704</v>
+          </cell>
+          <cell r="R786">
+            <v>0.66725802272780477</v>
+          </cell>
+          <cell r="S786">
+            <v>0.66994491905153575</v>
+          </cell>
+          <cell r="T786">
+            <v>0.66884241272697131</v>
+          </cell>
+          <cell r="U786">
+            <v>0.66684387789520327</v>
+          </cell>
+          <cell r="CJ786" t="str">
+            <v>SKHydrogenCIMS.CAN.SK.Electricity</v>
+          </cell>
+        </row>
+        <row r="787">
+          <cell r="K787">
+            <v>0.3055032888587616</v>
+          </cell>
+          <cell r="L787">
+            <v>0.39206225428851688</v>
+          </cell>
+          <cell r="M787">
+            <v>0.69294700873047532</v>
+          </cell>
+          <cell r="N787">
+            <v>0.68314223574957333</v>
+          </cell>
+          <cell r="O787">
+            <v>0.83901176190033999</v>
+          </cell>
+          <cell r="P787">
+            <v>0.93312909024403112</v>
+          </cell>
+          <cell r="Q787">
+            <v>1.0034951028479993</v>
+          </cell>
+          <cell r="R787">
+            <v>1.0792231224289803</v>
+          </cell>
+          <cell r="S787">
+            <v>1.136883896057987</v>
+          </cell>
+          <cell r="T787">
+            <v>1.1438611618460686</v>
+          </cell>
+          <cell r="U787">
+            <v>1.1576526921131201</v>
+          </cell>
+          <cell r="CJ787" t="str">
+            <v>SKHydrogenCIMS.Generic Fuels.Fuel Oil</v>
+          </cell>
+        </row>
+        <row r="788">
+          <cell r="K788">
+            <v>1.3628096143234574</v>
+          </cell>
+          <cell r="L788">
+            <v>0.99890194757692008</v>
+          </cell>
+          <cell r="M788">
+            <v>0.8169264084507043</v>
+          </cell>
+          <cell r="N788">
+            <v>0.43694289095736971</v>
+          </cell>
+          <cell r="O788">
+            <v>1.9168185634702848</v>
+          </cell>
+          <cell r="P788">
+            <v>2.0010587982396033</v>
+          </cell>
+          <cell r="Q788">
+            <v>2.1719783377385484</v>
+          </cell>
+          <cell r="R788">
+            <v>2.0361259603492736</v>
+          </cell>
+          <cell r="S788">
+            <v>1.7908185998474688</v>
+          </cell>
+          <cell r="T788">
+            <v>1.5250434012835337</v>
+          </cell>
+          <cell r="U788">
+            <v>1.352938189853417</v>
+          </cell>
+          <cell r="CJ788" t="str">
+            <v>SKHydrogenCIMS.Generic Fuels.Natural Gas</v>
+          </cell>
+        </row>
+        <row r="789">
+          <cell r="K789">
+            <v>1.664514895220859</v>
+          </cell>
+          <cell r="L789">
+            <v>1.0278745411027508</v>
+          </cell>
+          <cell r="M789">
+            <v>1.1024780113126038</v>
+          </cell>
+          <cell r="N789">
+            <v>0.84105426391186899</v>
+          </cell>
+          <cell r="O789">
+            <v>0.97447697705686454</v>
+          </cell>
+          <cell r="P789">
+            <v>1.0228818424435693</v>
+          </cell>
+          <cell r="Q789">
+            <v>1.0548551643497688</v>
+          </cell>
+          <cell r="R789">
+            <v>1.0715460975264461</v>
+          </cell>
+          <cell r="S789">
+            <v>1.0901225479835872</v>
+          </cell>
+          <cell r="T789">
+            <v>1.0901225479835872</v>
+          </cell>
+          <cell r="U789">
+            <v>1.0901225479835872</v>
+          </cell>
+          <cell r="CJ789" t="str">
+            <v>SKHydrogenCIMS.Generic Fuels.Propane</v>
           </cell>
         </row>
       </sheetData>
@@ -40622,22 +41545,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D568CEF7-446D-4DBA-85A6-BFC4BECCE07A}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349667E2-FAB0-4670-A586-2E1C70790586}">
   <dimension ref="A1:X46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:X46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -40711,7 +41633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -40778,7 +41700,7 @@
         <v>19.619809518755819</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -40845,7 +41767,7 @@
         <v>19.619809518755819</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -40912,7 +41834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -40979,7 +41901,7 @@
         <v>19.619809518755819</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -41046,7 +41968,7 @@
         <v>19.619809518755819</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -41116,7 +42038,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -41183,7 +42105,7 @@
         <v>19.619809518755819</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -41250,7 +42172,7 @@
         <v>19.619809518755819</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -41317,7 +42239,7 @@
         <v>35.500345774215099</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -41384,7 +42306,7 @@
         <v>26.272804255756874</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -41451,7 +42373,7 @@
         <v>35.500345774215099</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -41518,7 +42440,7 @@
         <v>26.272804255756874</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -41585,7 +42507,7 @@
         <v>19.619809518755819</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -41652,7 +42574,7 @@
         <v>19.619809518755819</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -41672,7 +42594,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -41692,7 +42614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -41712,7 +42634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -41768,7 +42690,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -41830,7 +42752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -41892,7 +42814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -41954,7 +42876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -41974,7 +42896,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -41994,7 +42916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -42014,7 +42936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -42070,7 +42992,7 @@
         <v>35.188099999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -42140,7 +43062,7 @@
         <v>7.4244372161799493E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -42213,7 +43135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -42286,7 +43208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -42359,7 +43281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -42379,7 +43301,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -42399,7 +43321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -42419,7 +43341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -42472,7 +43394,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -42542,7 +43464,7 @@
         <v>7.0926315828688483E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -42615,7 +43537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -42688,7 +43610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -42761,7 +43683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -42781,7 +43703,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -42801,7 +43723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -42821,7 +43743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -42888,7 +43810,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -42950,7 +43872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -43012,7 +43934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>28</v>
       </c>
